--- a/Original_Excel_Files/QA.xlsx
+++ b/Original_Excel_Files/QA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80639124-53AB-48B3-80AC-75AA6BBD9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452CE38-792D-479E-992B-C7356D1B8E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>QA3 .N48</t>
   </si>
   <si>
-    <t>Newman</t>
-  </si>
-  <si>
-    <t>James R.</t>
-  </si>
-  <si>
     <t>1956 H</t>
   </si>
   <si>
@@ -37,12 +31,6 @@
     <t>QA8.4 .R87</t>
   </si>
   <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Bertrand</t>
-  </si>
-  <si>
     <t>1993 P</t>
   </si>
   <si>
@@ -52,12 +40,6 @@
     <t>QA9 .B26 1964</t>
   </si>
   <si>
-    <t>Barker</t>
-  </si>
-  <si>
-    <t>Stephen F.</t>
-  </si>
-  <si>
     <t>1964 P</t>
   </si>
   <si>
@@ -67,24 +49,12 @@
     <t>QA9 .B282 2005</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>John D.</t>
-  </si>
-  <si>
     <t>The Infinite Book: A Short Guide to the Boundless, Timeless, and Endless</t>
   </si>
   <si>
     <t>QA9 .R23 1931</t>
   </si>
   <si>
-    <t>Ramsey</t>
-  </si>
-  <si>
-    <t>Frank Plumpton</t>
-  </si>
-  <si>
     <t>1931 H</t>
   </si>
   <si>
@@ -94,18 +64,6 @@
     <t>QA9.35 .B48 2000</t>
   </si>
   <si>
-    <t>Bessie</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Glennan</t>
-  </si>
-  <si>
-    <t>Stuart</t>
-  </si>
-  <si>
     <t>2000 H</t>
   </si>
   <si>
@@ -115,12 +73,6 @@
     <t>QA22 .K513 1922</t>
   </si>
   <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
     <t>1992 P</t>
   </si>
   <si>
@@ -130,15 +82,6 @@
     <t>QA39 .H62 1932</t>
   </si>
   <si>
-    <t>Hobbs</t>
-  </si>
-  <si>
-    <t>Glenn M.</t>
-  </si>
-  <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>1932 H</t>
   </si>
   <si>
@@ -148,18 +91,6 @@
     <t>QA76.9 .M65 F67 1990</t>
   </si>
   <si>
-    <t>Forester</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
     <t>1990 P</t>
   </si>
   <si>
@@ -169,12 +100,6 @@
     <t>QA76.9.M65 J64 1985</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Deborah G.</t>
-  </si>
-  <si>
     <t>1985 P</t>
   </si>
   <si>
@@ -184,12 +109,6 @@
     <t>QA93 .A3</t>
   </si>
   <si>
-    <t>Adler</t>
-  </si>
-  <si>
-    <t>Irving</t>
-  </si>
-  <si>
     <t>1959 P</t>
   </si>
   <si>
@@ -199,12 +118,6 @@
     <t>QA93 .P38 1988</t>
   </si>
   <si>
-    <t>Paulos</t>
-  </si>
-  <si>
-    <t>John Allen</t>
-  </si>
-  <si>
     <t>1988 H</t>
   </si>
   <si>
@@ -214,24 +127,15 @@
     <t>QA145 .P47</t>
   </si>
   <si>
-    <t>Petofrezzo, Anthony J. and Hight, Donald W.</t>
-  </si>
-  <si>
     <t>Elementary Mathematics</t>
   </si>
   <si>
     <t>QA39 .H6</t>
   </si>
   <si>
-    <t>Hobbs, Glenn M. and McKinney, James</t>
-  </si>
-  <si>
     <t>QA76 .G672 1989</t>
   </si>
   <si>
-    <t>Graham, Neil</t>
-  </si>
-  <si>
     <t>The Mind Tool: Computers and their impact on Society</t>
   </si>
   <si>
@@ -241,31 +145,28 @@
     <t>QA76.5 .K382</t>
   </si>
   <si>
-    <t>Kemeny, John G.</t>
-  </si>
-  <si>
     <t>Man and the Computer</t>
   </si>
   <si>
     <t>QA9.8 .H63 1980</t>
   </si>
   <si>
-    <t>Hofstadter, Douglas R.</t>
-  </si>
-  <si>
     <t>Gödel, Escher, Bach: and Eternal Golden Braid</t>
   </si>
   <si>
-    <t>Adler, Irving</t>
-  </si>
-  <si>
     <t>QA95 .F73 1970</t>
   </si>
   <si>
-    <t>Friedland, Aaron J.</t>
-  </si>
-  <si>
     <t>100 New Recreations: Puzzles In Math and Logic</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -346,39 +247,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,482 +615,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:I43"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="16">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12">
         <v>1970</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1953</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1989</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1989</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1972</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2005</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1980</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1962</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1953</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1989</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1989</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1972</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="B23" s="12">
+        <v>1970</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2">
-        <v>2005</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="18">
-        <v>2005</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1980</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1962</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1970</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:I43">
-    <sortCondition ref="A1:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
